--- a/IST_5520/HW_IST/Presentation Eval Form for Distance Students.xlsx
+++ b/IST_5520/HW_IST/Presentation Eval Form for Distance Students.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A6547E-A8CC-4E05-B8C9-4E468D86493D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Presentation Eval Form" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Evaluator:</t>
   </si>
@@ -284,11 +283,14 @@
   <si>
     <t>Group 4</t>
   </si>
+  <si>
+    <t>Ronald Adomako</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -491,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -548,37 +550,40 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,59 +868,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="6" customWidth="1"/>
     <col min="4" max="4" width="25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.453125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="5.7265625" style="6" customWidth="1"/>
     <col min="8" max="8" width="5" style="6" customWidth="1"/>
     <col min="9" max="9" width="6" style="6" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="6"/>
+    <col min="10" max="10" width="4.7265625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="5.7265625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="5.26953125" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F2" s="33">
+        <v>45269</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -924,7 +933,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
@@ -936,31 +945,31 @@
       <c r="G4" s="10"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="28" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28" t="s">
+      <c r="J6" s="23"/>
+      <c r="K6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -969,11 +978,15 @@
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
       <c r="F7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
       <c r="H7" s="16" t="s">
         <v>5</v>
       </c>
@@ -981,12 +994,14 @@
       <c r="J7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
       <c r="L7" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
@@ -995,11 +1010,15 @@
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
-      <c r="E8" s="19"/>
+      <c r="E8" s="19">
+        <v>10</v>
+      </c>
       <c r="F8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="19">
+        <v>10</v>
+      </c>
       <c r="H8" s="20" t="s">
         <v>6</v>
       </c>
@@ -1007,12 +1026,14 @@
       <c r="J8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="19"/>
+      <c r="K8" s="19">
+        <v>10</v>
+      </c>
       <c r="L8" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
@@ -1021,11 +1042,15 @@
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
       <c r="F9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
       <c r="H9" s="17" t="s">
         <v>6</v>
       </c>
@@ -1033,12 +1058,14 @@
       <c r="J9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>10</v>
+      </c>
       <c r="L9" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
@@ -1047,11 +1074,15 @@
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
-      <c r="E10" s="21"/>
+      <c r="E10" s="21">
+        <v>50</v>
+      </c>
       <c r="F10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="21">
+        <v>50</v>
+      </c>
       <c r="H10" s="20" t="s">
         <v>13</v>
       </c>
@@ -1059,25 +1090,31 @@
       <c r="J10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="21"/>
+      <c r="K10" s="21">
+        <v>50</v>
+      </c>
       <c r="L10" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
       <c r="F11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
       <c r="H11" s="17" t="s">
         <v>5</v>
       </c>
@@ -1085,25 +1122,31 @@
       <c r="J11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>5</v>
+      </c>
       <c r="L11" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="21">
+        <v>5</v>
+      </c>
       <c r="F12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>5</v>
+      </c>
       <c r="H12" s="20" t="s">
         <v>5</v>
       </c>
@@ -1111,20 +1154,22 @@
       <c r="J12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="21"/>
+      <c r="K12" s="21">
+        <v>5</v>
+      </c>
       <c r="L12" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
@@ -1133,11 +1178,15 @@
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
       <c r="F14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
       <c r="H14" s="16" t="s">
         <v>5</v>
       </c>
@@ -1145,12 +1194,14 @@
       <c r="J14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <v>5</v>
+      </c>
       <c r="L14" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
@@ -1159,11 +1210,15 @@
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="19">
+        <v>5</v>
+      </c>
       <c r="F15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="19">
+        <v>5</v>
+      </c>
       <c r="H15" s="20" t="s">
         <v>5</v>
       </c>
@@ -1171,12 +1226,14 @@
       <c r="J15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="19"/>
+      <c r="K15" s="19">
+        <v>5</v>
+      </c>
       <c r="L15" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
@@ -1185,11 +1242,15 @@
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
       <c r="F16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
       <c r="H16" s="18" t="s">
         <v>5</v>
       </c>
@@ -1197,12 +1258,14 @@
       <c r="J16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <v>5</v>
+      </c>
       <c r="L16" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1211,12 +1274,12 @@
       </c>
       <c r="E17" s="14">
         <f>SUM(E7:E12,E14:E16)</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14">
         <f>SUM(G7:G12,G14:G16)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14">
@@ -1226,12 +1289,17 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14">
         <f>SUM(K7:K12,K14:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="32"/>
+        <v>100</v>
+      </c>
+      <c r="L17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="I6:J6"/>
@@ -1245,11 +1313,6 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
